--- a/BACK-END/Dados_Excel/histórico.xlsx
+++ b/BACK-END/Dados_Excel/histórico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\2DSTB-12\Disciplinas\PWBE\Integrador\Dados Integrador\Dados Integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ct67ca\Desktop\Integrador2nd\BACK-END\Dados_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155ECD4-2317-4D6D-A37A-0E6E34E803E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B918CBB8-450A-4DE4-8B2A-7E0F56217BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E0D64BB0-119D-4F51-B493-12140F539A99}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0D64BB0-119D-4F51-B493-12140F539A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1606,17 +1606,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,9 +1652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1675,7 +1692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1781,7 +1798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1923,7 +1940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1934,17 +1951,17 @@
   <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>498</v>
       </c>
@@ -1959,6988 +1976,6988 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>45862.967361111114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>45662.370833333334</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>45715.600694444445</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>46003.439583333333</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>45818.347222222219</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>45824.508333333331</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>45811.872916666667</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>45693.373611111114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>45707.318749999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>45942.669444444444</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>45743.302083333336</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>45985.283333333333</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>45841.305555555555</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>45744.804166666669</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>45696.477777777778</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>45819.74722222222</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>45714.209722222222</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>45807.388888888891</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>45935.609027777777</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>45790.088194444441</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <v>45913.294444444444</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <v>45935.412499999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>45859.918055555558</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <v>45686.158333333333</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <v>45852.252083333333</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>16</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <v>45732.943055555559</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <v>45906.61041666667</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>45950.839583333334</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>5</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <v>45978.279861111114</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>13</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="5">
         <v>45862.192361111112</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="5">
         <v>45775.445138888892</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>11</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="5">
         <v>45663.677777777775</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>13</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="5">
         <v>45925.688888888886</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>13</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <v>45921.098611111112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>1</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>45702.720138888886</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>4</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <v>45770.040972222225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>9</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
         <v>45684.39166666667</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>3</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="5">
         <v>45937.098611111112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>16</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <v>45682.331944444442</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <v>45659.114583333336</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>16</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="5">
         <v>45848.734027777777</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>9</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="5">
         <v>45890.183333333334</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>6</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
         <v>45977.087500000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>1</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="5">
         <v>45905.002083333333</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>11</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="5">
         <v>45982.155555555553</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>16</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="5">
         <v>45686.185416666667</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>7</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="5">
         <v>45851.870833333334</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>10</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="5">
         <v>45838.351388888892</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>10</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="5">
         <v>45824.480555555558</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>5</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="5">
         <v>45982.227083333331</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="5">
         <v>45933.9</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>5</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="5">
         <v>45895.677777777775</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="5">
         <v>45813.861111111109</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>13</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>2</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>2</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="5">
         <v>45719.790277777778</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>4</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="5">
         <v>45805.915277777778</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>13</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="5">
         <v>45965.84652777778</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>2</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="5">
         <v>45788.193055555559</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>2</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="5">
         <v>45806.700694444444</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>4</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="5">
         <v>45961.09375</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>2</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="5">
         <v>45949.938888888886</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>2</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="5">
         <v>45830.268055555556</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>7</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="5">
         <v>45850.43472222222</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>14</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="5">
         <v>45793.12777777778</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>3</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="5">
         <v>46004.972916666666</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>5</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>67</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="5">
         <v>45726.145138888889</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>7</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="5">
         <v>45845.259722222225</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>10</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="5">
         <v>45832.121527777781</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>13</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="5">
         <v>45813.451388888891</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>16</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="5">
         <v>45879.789583333331</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>10</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="5">
         <v>45778.520138888889</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>4</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>15</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="5">
         <v>45725.135416666664</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>12</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="5">
         <v>45757.691666666666</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>13</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="5">
         <v>45932.716666666667</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>2</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="5">
         <v>45658.838194444441</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>3</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="5">
         <v>45892.276388888888</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>4</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="5">
         <v>45773.261111111111</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>1</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="5">
         <v>46022.309027777781</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>9</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="5">
         <v>45973.938888888886</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>4</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="5">
         <v>45965.704861111109</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>15</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="5">
         <v>45871.696527777778</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>16</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="5">
         <v>45865.068749999999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>7</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="5">
         <v>45921.456944444442</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>8</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="5">
         <v>45930.495138888888</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>5</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="5">
         <v>45999.654166666667</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>2</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="5">
         <v>45700.481249999997</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>11</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>89</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="5">
         <v>46014.345833333333</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>15</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="5">
         <v>45992.722222222219</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>10</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="5">
         <v>45857.592361111114</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>5</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>92</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="5">
         <v>45840.723611111112</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>1</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="5">
         <v>45890.640277777777</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>7</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>94</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="5">
         <v>45797.67083333333</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>10</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="5">
         <v>45714.385416666664</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>7</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="5">
         <v>45771.281944444447</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>7</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="5">
         <v>45809.453472222223</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>4</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="5">
         <v>45738.775694444441</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>1</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="5">
         <v>45862.263888888891</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>5</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="5">
         <v>45904.636111111111</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>10</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="5">
         <v>45877.962500000001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>12</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>102</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="5">
         <v>45707.40902777778</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>3</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="5">
         <v>46022.647222222222</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>13</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="5">
         <v>45806.6</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>11</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="5">
         <v>45801.523611111108</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>15</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>106</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="5">
         <v>45768.668749999997</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>15</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>107</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="5">
         <v>46011.336805555555</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>16</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>108</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="5">
         <v>45864.011111111111</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>15</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="5">
         <v>45859.57708333333</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>9</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>110</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="5">
         <v>45709.015972222223</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>15</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>111</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="5">
         <v>45898.730555555558</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>1</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>112</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="5">
         <v>45760.668055555558</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>10</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>113</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="5">
         <v>46011.630555555559</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>13</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>114</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="5">
         <v>45993.165277777778</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>3</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>115</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="5">
         <v>45948.68472222222</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>6</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>116</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="5">
         <v>46018.770138888889</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>10</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>117</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="5">
         <v>45968.970833333333</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>3</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>118</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="5">
         <v>45792.009027777778</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>8</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>119</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="5">
         <v>45785.165277777778</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>1</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>120</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="5">
         <v>45896.340277777781</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>16</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>121</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="5">
         <v>46007.888194444444</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>8</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>122</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="5">
         <v>45666.551388888889</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>13</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <v>123</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="5">
         <v>45782.29791666667</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>9</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>124</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="5">
         <v>45726.029166666667</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>12</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="5">
         <v>45763.348611111112</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>16</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <v>126</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="5">
         <v>45844.022916666669</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>4</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>127</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="5">
         <v>45895.636111111111</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>7</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <v>128</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="5">
         <v>45719.30972222222</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>8</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="5">
         <v>45833.902777777781</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>15</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <v>130</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="5">
         <v>45757.09652777778</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>8</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <v>131</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="5">
         <v>45866.879166666666</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>8</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <v>132</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="5">
         <v>45758.125694444447</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>16</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <v>133</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="5">
         <v>46014.65</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>9</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
         <v>134</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="5">
         <v>45706.564583333333</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>8</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <v>135</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="5">
         <v>45754.731249999997</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>12</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>136</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="5">
         <v>45911.524305555555</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>13</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <v>137</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="5">
         <v>45808.811805555553</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>12</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>138</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="5">
         <v>45939.079861111109</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>16</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>139</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="5">
         <v>45806.426388888889</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>3</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
         <v>140</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="5">
         <v>45828.486805555556</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>15</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <v>1</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="5">
         <v>45725.663888888892</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>13</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
         <v>2</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="5">
         <v>45773.536111111112</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>3</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
         <v>3</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="5">
         <v>45761.680555555555</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>10</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
         <v>4</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="5">
         <v>45969.837500000001</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>9</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
         <v>5</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="5">
         <v>45820.803472222222</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>14</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
         <v>6</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="5">
         <v>45759.132638888892</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>1</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="4">
         <v>7</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="5">
         <v>45845.008333333331</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>9</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <v>8</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="5">
         <v>45852.072222222225</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>10</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
         <v>9</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="5">
         <v>45744.288194444445</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>11</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="5">
         <v>45935.07708333333</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>12</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <v>11</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="4" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>16</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
         <v>12</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="5">
         <v>45842.509027777778</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>2</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <v>13</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="5">
         <v>45969.65</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>4</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="4">
         <v>14</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="5">
         <v>45977.072222222225</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>15</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="4">
         <v>15</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="5">
         <v>46012.279861111114</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>15</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <v>16</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="5">
         <v>46010.69027777778</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>6</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="5">
         <v>45846.055555555555</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>10</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <v>18</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="5">
         <v>45924.613194444442</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>5</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <v>19</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="5">
         <v>45924.867361111108</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="4">
         <v>2</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <v>20</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="5">
         <v>45962.881249999999</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>15</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
         <v>21</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="5">
         <v>45762.040972222225</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>9</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <v>22</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="5">
         <v>45859.314583333333</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>4</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <v>23</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="5">
         <v>45724.28402777778</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>3</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <v>24</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="4" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>1</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="4">
         <v>25</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="5">
         <v>45744.406944444447</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>13</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
         <v>26</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="4" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>13</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="4">
         <v>27</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="5">
         <v>45853.97152777778</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>9</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="4">
         <v>28</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="5">
         <v>45790.628472222219</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>5</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="4">
         <v>29</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="5">
         <v>45955.772222222222</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>3</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
         <v>30</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="5">
         <v>45840.15347222222</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>7</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="4">
         <v>31</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="5">
         <v>45833.848611111112</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>12</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="4">
         <v>32</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="5">
         <v>45805.547222222223</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>12</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="4">
         <v>33</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="5">
         <v>45856.365277777775</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>1</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="4">
         <v>34</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="5">
         <v>45793.113194444442</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>13</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="4">
         <v>35</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="5">
         <v>45990.710416666669</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>13</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="4">
         <v>36</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="5">
         <v>45802.040972222225</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>7</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <v>37</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="5">
         <v>45695.668055555558</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>8</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
         <v>38</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="5">
         <v>46004.643055555556</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>1</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="4">
         <v>39</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="5">
         <v>45853.96875</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>14</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="4">
         <v>40</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="5">
         <v>46019.234027777777</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>1</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="4">
         <v>41</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="5">
         <v>45828.269444444442</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>3</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="4">
         <v>42</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="5">
         <v>45842.496527777781</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>10</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="4">
         <v>43</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="5">
         <v>45712.996527777781</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="4">
         <v>6</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="4">
         <v>44</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="5">
         <v>45802.452777777777</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>3</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="4">
         <v>45</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="5">
         <v>45873.811805555553</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="4">
         <v>1</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="4">
         <v>46</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="5">
         <v>45944.453472222223</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>10</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="4">
         <v>47</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="5">
         <v>45848.427083333336</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="4">
         <v>2</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="4">
         <v>48</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="5">
         <v>45863.386805555558</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>11</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="4">
         <v>49</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="5">
         <v>45692.620138888888</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="4">
         <v>3</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="4">
         <v>50</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="5">
         <v>45829.598611111112</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>14</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="4">
         <v>51</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="5">
         <v>45997.98541666667</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="4">
         <v>3</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="4">
         <v>52</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="5">
         <v>46014.076388888891</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>14</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="4">
         <v>53</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="5">
         <v>45731.238194444442</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="4">
         <v>13</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="4">
         <v>54</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="5">
         <v>45702.554861111108</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>12</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="4">
         <v>55</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="5">
         <v>45875.992361111108</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="4">
         <v>16</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="4">
         <v>56</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="5">
         <v>45814.425000000003</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>2</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="4">
         <v>57</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="5">
         <v>45753.602777777778</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="4">
         <v>15</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="4">
         <v>58</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="5">
         <v>45909.801388888889</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>15</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="4">
         <v>59</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="5">
         <v>45716.236111111109</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="4">
         <v>7</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="4">
         <v>60</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="5">
         <v>45879.474999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>15</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="4">
         <v>61</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="5">
         <v>45721.207638888889</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="4">
         <v>8</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="4">
         <v>62</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="5">
         <v>46006.920138888891</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>14</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="4">
         <v>63</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="5">
         <v>45954.173611111109</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="4">
         <v>16</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="4">
         <v>64</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="5">
         <v>45871.793055555558</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>6</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="4">
         <v>65</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="5">
         <v>46015.973611111112</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="4">
         <v>2</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="4">
         <v>66</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="5">
         <v>45851.931944444441</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>7</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="4">
         <v>67</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="5">
         <v>45791.118750000001</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="4">
         <v>12</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="4">
         <v>68</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="5">
         <v>45845.750694444447</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>1</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="4">
         <v>69</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="5">
         <v>45794.621527777781</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="4">
         <v>8</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="4">
         <v>70</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="5">
         <v>45711.807638888888</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>6</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="4">
         <v>71</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="4" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>5</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="4">
         <v>72</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="5">
         <v>45881.24722222222</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>11</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="4">
         <v>73</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="5">
         <v>45741.319444444445</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>2</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="4">
         <v>74</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="5">
         <v>45862.982638888891</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>12</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="4">
         <v>75</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="5">
         <v>45699.927777777775</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>11</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="4">
         <v>76</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="4" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>10</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="4">
         <v>77</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D218" s="5">
         <v>45883.472222222219</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>16</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="4">
         <v>78</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="5">
         <v>45783.42291666667</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>11</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="4">
         <v>79</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="5">
         <v>45680.123611111114</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>1</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="4">
         <v>80</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="5">
         <v>45830.51666666667</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>9</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="4">
         <v>81</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="5">
         <v>45908.926388888889</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="4">
         <v>2</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="4">
         <v>82</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="5">
         <v>45826.652777777781</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>5</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="4">
         <v>83</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="5">
         <v>45934.279166666667</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="4">
         <v>9</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="4">
         <v>84</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="5">
         <v>45755.643750000003</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>5</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="4">
         <v>85</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="5">
         <v>45671.136111111111</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="4">
         <v>3</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="4">
         <v>86</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="5">
         <v>45820.504861111112</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>14</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="4">
         <v>87</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="5">
         <v>45947.546527777777</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="4">
         <v>5</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="4">
         <v>88</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="5">
         <v>45745.053472222222</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>1</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="4">
         <v>89</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="5">
         <v>45942.47152777778</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="4">
         <v>5</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="4">
         <v>90</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="5">
         <v>45883.338194444441</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>5</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="4">
         <v>91</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="5">
         <v>45858.128472222219</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="4">
         <v>9</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="4">
         <v>92</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="5">
         <v>45943.277777777781</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>4</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="4">
         <v>93</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234" s="5">
         <v>45762.464583333334</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="4">
         <v>13</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="4">
         <v>94</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="5">
         <v>45811.173611111109</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>13</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="4">
         <v>95</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="5">
         <v>45709.231249999997</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="4">
         <v>7</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="4">
         <v>96</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="5">
         <v>45801.414583333331</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>1</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="4">
         <v>97</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="5">
         <v>45857.077777777777</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>13</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="4">
         <v>98</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="5">
         <v>45847.760416666664</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>1</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="4">
         <v>99</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="5">
         <v>45681.930555555555</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="4">
         <v>8</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="4">
         <v>100</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="5">
         <v>45921.927083333336</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="4">
         <v>15</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="4">
         <v>101</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="5">
         <v>45816.220833333333</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="4">
         <v>5</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="4">
         <v>102</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="5">
         <v>45739.597916666666</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="4">
         <v>16</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="4">
         <v>103</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="5">
         <v>45924.099305555559</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="4">
         <v>2</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="4">
         <v>104</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="5">
         <v>45954.195833333331</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="4">
         <v>16</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="4">
         <v>105</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D246" s="5">
         <v>45743.824305555558</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="4">
         <v>2</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="4">
         <v>106</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="5">
         <v>45979.552777777775</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="4">
         <v>2</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="4">
         <v>107</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D248" s="5">
         <v>45739.655555555553</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="4">
         <v>9</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="4">
         <v>108</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249" s="5">
         <v>45956.6875</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="4">
         <v>1</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="4">
         <v>109</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250" s="5">
         <v>45841.356944444444</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="4">
         <v>9</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="4">
         <v>110</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="5">
         <v>45792.177083333336</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="4">
         <v>11</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="4">
         <v>111</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252" s="5">
         <v>45943.90902777778</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="4">
         <v>14</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="4">
         <v>112</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D253" s="1">
+      <c r="D253" s="5">
         <v>45663.832638888889</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="4">
         <v>13</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="4">
         <v>113</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="5">
         <v>45940.95416666667</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="4">
         <v>10</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="4">
         <v>114</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="5">
         <v>45732.979861111111</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="4">
         <v>6</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="4">
         <v>115</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256" s="5">
         <v>45719.370833333334</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="4">
         <v>10</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="4">
         <v>116</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257" s="5">
         <v>45816.923611111109</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="4">
         <v>5</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="4">
         <v>117</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="5">
         <v>45731.631249999999</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="4">
         <v>8</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="4">
         <v>118</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="5">
         <v>45922.760416666664</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="4">
         <v>4</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="4">
         <v>119</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260" s="5">
         <v>45664.011805555558</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="4">
         <v>13</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="4">
         <v>120</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D261" s="5">
         <v>45986.831944444442</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="4">
         <v>15</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="4">
         <v>121</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D262" s="5">
         <v>45829.42083333333</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="4">
         <v>12</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="4">
         <v>122</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D263" s="1">
+      <c r="D263" s="5">
         <v>45869.27847222222</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="4">
         <v>7</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="4">
         <v>123</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="5">
         <v>45733.503472222219</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="4">
         <v>9</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="4">
         <v>124</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="5">
         <v>45737.677083333336</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="4">
         <v>6</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="4">
         <v>125</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="5">
         <v>45859.342361111114</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="4">
         <v>4</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="4">
         <v>126</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267" s="5">
         <v>45837.938888888886</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="4">
         <v>7</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="4">
         <v>127</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="5">
         <v>45926.181250000001</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="4">
         <v>15</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="4">
         <v>128</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="5">
         <v>45924.240972222222</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="4">
         <v>4</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="4">
         <v>129</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270" s="5">
         <v>45960.510416666664</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="4">
         <v>7</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="4">
         <v>130</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="5">
         <v>45985.556944444441</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="4">
         <v>12</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="4">
         <v>131</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272" s="5">
         <v>45955.857638888891</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="4">
         <v>6</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="4">
         <v>132</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273" s="5">
         <v>45753.20208333333</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="4">
         <v>16</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="4">
         <v>133</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274" s="5">
         <v>45807.290972222225</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="4">
         <v>8</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="4">
         <v>134</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D275" s="5">
         <v>45815.53402777778</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="4">
         <v>14</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="4">
         <v>135</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276" s="5">
         <v>45960.994444444441</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="4">
         <v>8</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="4">
         <v>136</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277" s="5">
         <v>45876.828472222223</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="4">
         <v>13</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="4">
         <v>137</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278" s="5">
         <v>45801.509722222225</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="4">
         <v>2</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="4">
         <v>138</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279" s="5">
         <v>45770.444444444445</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="4">
         <v>3</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="4">
         <v>139</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280" s="5">
         <v>45843.587500000001</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="4">
         <v>15</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="4">
         <v>140</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D281" s="5">
         <v>45827.054166666669</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="4">
         <v>8</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="4">
         <v>1</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="5">
         <v>45708.65625</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="4">
         <v>5</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="4">
         <v>2</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="5">
         <v>46011.943055555559</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="4">
         <v>7</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="4">
         <v>3</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D284" s="5">
         <v>45980.96875</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="4">
         <v>10</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="4">
         <v>4</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D285" s="5">
         <v>45716.195138888892</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="4">
         <v>12</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="4">
         <v>5</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D286" s="1">
+      <c r="D286" s="5">
         <v>45901.599999999999</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="4">
         <v>8</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="4">
         <v>6</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287" s="5">
         <v>45968.267361111109</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="4">
         <v>9</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="4">
         <v>7</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288" s="5">
         <v>45874.748611111114</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="4">
         <v>4</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="4">
         <v>8</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D289" s="1">
+      <c r="D289" s="5">
         <v>45762.367361111108</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="4">
         <v>1</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="4">
         <v>9</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290" s="5">
         <v>45933.929861111108</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="4">
         <v>14</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D291" s="5">
         <v>45719.345833333333</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="4">
         <v>9</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="4">
         <v>11</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D292" s="1">
+      <c r="D292" s="5">
         <v>45970.533333333333</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="4">
         <v>10</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="4">
         <v>12</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293" s="5">
         <v>45890.069444444445</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="4">
         <v>1</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="4">
         <v>13</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294" s="5">
         <v>45968.256944444445</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="4">
         <v>2</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="4">
         <v>14</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D295" s="1">
+      <c r="D295" s="5">
         <v>45765.540972222225</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="4">
         <v>4</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="4">
         <v>15</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296" s="5">
         <v>45948.53402777778</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="4">
         <v>7</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="4">
         <v>16</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="5">
         <v>45851.595138888886</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="4">
         <v>9</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298" s="5">
         <v>45788.599305555559</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="4">
         <v>9</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="4">
         <v>18</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299" s="5">
         <v>45783.038194444445</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="4">
         <v>16</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="4">
         <v>19</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300" s="5">
         <v>45952.409722222219</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="4">
         <v>13</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="4">
         <v>20</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301" s="5">
         <v>45965.736805555556</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="4">
         <v>4</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="4">
         <v>21</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D302" s="1">
+      <c r="D302" s="5">
         <v>45789.335416666669</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="4">
         <v>4</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="4">
         <v>22</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303" s="5">
         <v>45968.567361111112</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="4">
         <v>12</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="4">
         <v>23</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304" s="5">
         <v>45707.930555555555</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="4">
         <v>3</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="4">
         <v>24</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305" s="5">
         <v>45937.804166666669</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="4">
         <v>10</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="4">
         <v>25</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D306" s="1">
+      <c r="D306" s="5">
         <v>45739.512499999997</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="4">
         <v>9</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="4">
         <v>26</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="4" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="4">
         <v>14</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="4">
         <v>27</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308" s="5">
         <v>45989.453472222223</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="4">
         <v>15</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="4">
         <v>28</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D309" s="1">
+      <c r="D309" s="5">
         <v>45940.386805555558</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="4">
         <v>12</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="4">
         <v>29</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310" s="5">
         <v>45999.607638888891</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="4">
         <v>3</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="4">
         <v>30</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311" s="5">
         <v>45701.863194444442</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="4">
         <v>5</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="4">
         <v>31</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D312" s="1">
+      <c r="D312" s="5">
         <v>45912.211111111108</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="4">
         <v>4</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="4">
         <v>32</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D313" s="1">
+      <c r="D313" s="5">
         <v>45968.470138888886</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="4">
         <v>6</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="4">
         <v>33</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314" s="5">
         <v>45989.026388888888</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="4">
         <v>4</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="4">
         <v>34</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D315" s="1">
+      <c r="D315" s="5">
         <v>45952.671527777777</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="4">
         <v>14</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="4">
         <v>35</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316" s="5">
         <v>45816.467361111114</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="4">
         <v>14</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="4">
         <v>36</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D317" s="5">
         <v>45968.051388888889</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="4">
         <v>6</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="4">
         <v>37</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="5">
         <v>45930.76458333333</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="4">
         <v>4</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="4">
         <v>38</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319" s="5">
         <v>45918.324305555558</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="4">
         <v>6</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="4">
         <v>39</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320" s="5">
         <v>45962.368055555555</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="4">
         <v>2</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="4">
         <v>40</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="5">
         <v>46011.55972222222</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="4">
         <v>16</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="4">
         <v>41</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="5">
         <v>45817.765972222223</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="4">
         <v>14</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="4">
         <v>42</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="5">
         <v>46016.894444444442</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="4">
         <v>4</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="4">
         <v>43</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="5">
         <v>45827.326388888891</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="4">
         <v>14</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="4">
         <v>44</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="5">
         <v>45893.076388888891</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="4">
         <v>11</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="4">
         <v>45</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="5">
         <v>45837.750694444447</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="4">
         <v>3</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="4">
         <v>46</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="5">
         <v>45933.600694444445</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="4">
         <v>12</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="4">
         <v>47</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="5">
         <v>45853.767361111109</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="4">
         <v>11</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="4">
         <v>48</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="5">
         <v>45719.063888888886</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="4">
         <v>12</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="4">
         <v>49</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="5">
         <v>45687.734722222223</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="4">
         <v>4</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="4">
         <v>50</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="5">
         <v>45803.102083333331</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="4">
         <v>16</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="4">
         <v>51</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="5">
         <v>45977.850694444445</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="4">
         <v>1</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="4">
         <v>52</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="5">
         <v>45748.602777777778</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="4">
         <v>1</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="4">
         <v>53</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="5">
         <v>45994.722916666666</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="4">
         <v>1</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="4">
         <v>54</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="5">
         <v>46011.036805555559</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="4">
         <v>15</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="4">
         <v>55</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="5">
         <v>45766.043749999997</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="4">
         <v>13</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="4">
         <v>56</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="5">
         <v>45710.436111111114</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="4">
         <v>9</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="4">
         <v>57</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="5">
         <v>45946.78402777778</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="4">
         <v>12</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="4">
         <v>58</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="4" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="4">
         <v>4</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="4">
         <v>59</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="5">
         <v>45745.726388888892</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="4">
         <v>15</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="4">
         <v>60</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="5">
         <v>45962.574999999997</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="4">
         <v>16</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="4">
         <v>61</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342" s="5">
         <v>45869.472222222219</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="4">
         <v>15</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="4">
         <v>62</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D343" s="1">
+      <c r="D343" s="5">
         <v>45783.859027777777</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="4">
         <v>4</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="4">
         <v>63</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D344" s="1">
+      <c r="D344" s="5">
         <v>45949.329861111109</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="4">
         <v>16</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="4">
         <v>64</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D345" s="1">
+      <c r="D345" s="5">
         <v>45793.490277777775</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="4">
         <v>13</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="4">
         <v>65</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D346" s="1">
+      <c r="D346" s="5">
         <v>45946.053472222222</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="4">
         <v>13</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="4">
         <v>66</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D347" s="1">
+      <c r="D347" s="5">
         <v>45808.241666666669</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="4">
         <v>9</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="4">
         <v>67</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D348" s="1">
+      <c r="D348" s="5">
         <v>45998.534722222219</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="4">
         <v>6</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="4">
         <v>68</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D349" s="1">
+      <c r="D349" s="5">
         <v>45658.722916666666</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="4">
         <v>7</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="4">
         <v>69</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350" s="5">
         <v>45875.015277777777</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="4">
         <v>8</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="4">
         <v>70</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351" s="5">
         <v>45751.934027777781</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="4">
         <v>6</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="4">
         <v>71</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352" s="5">
         <v>45867.29791666667</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="4">
         <v>14</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="4">
         <v>72</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353" s="5">
         <v>45748.67291666667</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="4">
         <v>12</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="4">
         <v>73</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354" s="5">
         <v>45808.689583333333</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="4">
         <v>5</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="4">
         <v>74</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355" s="5">
         <v>45671.911111111112</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="4">
         <v>6</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="4">
         <v>75</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356" s="5">
         <v>45756.674305555556</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="4">
         <v>14</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="4">
         <v>76</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357" s="5">
         <v>45920.018750000003</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="4">
         <v>10</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="4">
         <v>77</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358" s="5">
         <v>45706.686805555553</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="4">
         <v>10</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="4">
         <v>78</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359" s="5">
         <v>45989.82916666667</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="4">
         <v>2</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="4">
         <v>79</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D360" s="1">
+      <c r="D360" s="5">
         <v>45725.185416666667</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="4">
         <v>15</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="4">
         <v>80</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="4" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="4">
         <v>10</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="4">
         <v>81</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D362" s="1">
+      <c r="D362" s="5">
         <v>45751.35833333333</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="4">
         <v>10</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="4">
         <v>82</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D363" s="1">
+      <c r="D363" s="5">
         <v>45720.642361111109</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="4">
         <v>4</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="4">
         <v>83</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D364" s="1">
+      <c r="D364" s="5">
         <v>45897.993055555555</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="4">
         <v>2</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="4">
         <v>84</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="4" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="4">
         <v>9</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="4">
         <v>85</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D366" s="1">
+      <c r="D366" s="5">
         <v>45732.930555555555</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="4">
         <v>6</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="4">
         <v>86</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D367" s="1">
+      <c r="D367" s="5">
         <v>45758.230555555558</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="4">
         <v>4</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="4">
         <v>87</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D368" s="1">
+      <c r="D368" s="5">
         <v>45833.142361111109</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="4">
         <v>9</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="4">
         <v>88</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D369" s="1">
+      <c r="D369" s="5">
         <v>45703.303472222222</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="4">
         <v>1</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="4">
         <v>89</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D370" s="1">
+      <c r="D370" s="5">
         <v>45894.564583333333</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="4">
         <v>13</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="4">
         <v>90</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C371" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D371" s="1">
+      <c r="D371" s="5">
         <v>46013.645138888889</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="4">
         <v>12</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="4">
         <v>91</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C372" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D372" s="1">
+      <c r="D372" s="5">
         <v>45665.446527777778</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="4">
         <v>5</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="4">
         <v>92</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373" s="5">
         <v>45691.309027777781</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="4">
         <v>13</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="4">
         <v>93</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D374" s="1">
+      <c r="D374" s="5">
         <v>45793.877083333333</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="4">
         <v>12</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="4">
         <v>94</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D375" s="1">
+      <c r="D375" s="5">
         <v>45818.752083333333</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="4">
         <v>9</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="4">
         <v>95</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D376" s="1">
+      <c r="D376" s="5">
         <v>45821.475694444445</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="4">
         <v>15</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="4">
         <v>96</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D377" s="1">
+      <c r="D377" s="5">
         <v>45802.592361111114</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="4">
         <v>14</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="4">
         <v>97</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D378" s="1">
+      <c r="D378" s="5">
         <v>45947.955555555556</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="4">
         <v>1</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="4">
         <v>98</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D379" s="1">
+      <c r="D379" s="5">
         <v>45674.915972222225</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="4">
         <v>15</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="4">
         <v>99</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D380" s="1">
+      <c r="D380" s="5">
         <v>45826.981944444444</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="4">
         <v>12</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="4">
         <v>100</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D381" s="1">
+      <c r="D381" s="5">
         <v>45808.488194444442</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="4">
         <v>5</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="4">
         <v>101</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C382" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D382" s="1">
+      <c r="D382" s="5">
         <v>45789.706944444442</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="4">
         <v>7</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="4">
         <v>102</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D383" s="1">
+      <c r="D383" s="5">
         <v>45726.419444444444</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="4">
         <v>4</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="4">
         <v>103</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384" s="5">
         <v>45791.059027777781</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="4">
         <v>16</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="4">
         <v>104</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D385" s="1">
+      <c r="D385" s="5">
         <v>45869.745833333334</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="4">
         <v>9</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="4">
         <v>105</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D386" s="1">
+      <c r="D386" s="5">
         <v>45949.868750000001</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="4">
         <v>7</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="4">
         <v>106</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D387" s="1">
+      <c r="D387" s="5">
         <v>45950.997916666667</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="4">
         <v>9</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="4">
         <v>107</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D388" s="1">
+      <c r="D388" s="5">
         <v>45698.074999999997</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="4">
         <v>5</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="4">
         <v>108</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D389" s="1">
+      <c r="D389" s="5">
         <v>45770.624305555553</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="4">
         <v>15</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="4">
         <v>109</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D390" s="1">
+      <c r="D390" s="5">
         <v>45739.531944444447</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="4">
         <v>16</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="4">
         <v>110</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D391" s="1">
+      <c r="D391" s="5">
         <v>45951.1875</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="4">
         <v>15</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="4">
         <v>111</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D392" s="1">
+      <c r="D392" s="5">
         <v>45949.070833333331</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="4">
         <v>16</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="4">
         <v>112</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D393" s="1">
+      <c r="D393" s="5">
         <v>45763.859027777777</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="4">
         <v>4</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="4">
         <v>113</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D394" s="1">
+      <c r="D394" s="5">
         <v>45847.025000000001</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="4">
         <v>4</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="4">
         <v>114</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D395" s="1">
+      <c r="D395" s="5">
         <v>45804.134027777778</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="4">
         <v>5</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="4">
         <v>115</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D396" s="1">
+      <c r="D396" s="5">
         <v>45798.006249999999</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="4">
         <v>2</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="4">
         <v>116</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="4" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="4">
         <v>8</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="4">
         <v>117</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D398" s="1">
+      <c r="D398" s="5">
         <v>45686.046527777777</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="4">
         <v>1</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="4">
         <v>118</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D399" s="1">
+      <c r="D399" s="5">
         <v>45683.347222222219</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="4">
         <v>1</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="4">
         <v>119</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D400" s="1">
+      <c r="D400" s="5">
         <v>45795.747916666667</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="4">
         <v>11</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="4">
         <v>120</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D401" s="1">
+      <c r="D401" s="5">
         <v>45897.339583333334</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="4">
         <v>11</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="4">
         <v>121</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D402" s="1">
+      <c r="D402" s="5">
         <v>45860.288194444445</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="4">
         <v>14</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="4">
         <v>122</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D403" s="1">
+      <c r="D403" s="5">
         <v>45667.502083333333</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="4">
         <v>6</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="4">
         <v>123</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D404" s="1">
+      <c r="D404" s="5">
         <v>45820.294444444444</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="4">
         <v>2</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="4">
         <v>124</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D405" s="1">
+      <c r="D405" s="5">
         <v>45954.811805555553</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="4">
         <v>11</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="4">
         <v>125</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D406" s="1">
+      <c r="D406" s="5">
         <v>45964.213194444441</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="4">
         <v>15</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="4">
         <v>126</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="4" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="4">
         <v>13</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="4">
         <v>127</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D408" s="1">
+      <c r="D408" s="5">
         <v>45724.143750000003</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="4">
         <v>2</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="4">
         <v>128</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D409" s="1">
+      <c r="D409" s="5">
         <v>45835.402083333334</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="4">
         <v>16</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="4">
         <v>129</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D410" s="1">
+      <c r="D410" s="5">
         <v>45780.185416666667</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="4">
         <v>7</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="4">
         <v>130</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D411" s="1">
+      <c r="D411" s="5">
         <v>45996.552083333336</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="4">
         <v>2</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="4">
         <v>131</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D412" s="1">
+      <c r="D412" s="5">
         <v>45846.277083333334</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="4">
         <v>15</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="4">
         <v>132</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D413" s="1">
+      <c r="D413" s="5">
         <v>45671.395833333336</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="4">
         <v>3</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="4">
         <v>133</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D414" s="1">
+      <c r="D414" s="5">
         <v>45842.407638888886</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="4">
         <v>14</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="4">
         <v>134</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D415" s="1">
+      <c r="D415" s="5">
         <v>45736.381249999999</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="4">
         <v>16</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="4">
         <v>135</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D416" s="1">
+      <c r="D416" s="5">
         <v>45820.792361111111</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="4">
         <v>13</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="4">
         <v>136</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D417" s="1">
+      <c r="D417" s="5">
         <v>45856.709027777775</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="4">
         <v>13</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="4">
         <v>137</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D418" s="1">
+      <c r="D418" s="5">
         <v>45749.06527777778</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="4">
         <v>12</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="4">
         <v>138</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D419" s="1">
+      <c r="D419" s="5">
         <v>45976.297222222223</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="4">
         <v>6</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="4">
         <v>139</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D420" s="1">
+      <c r="D420" s="5">
         <v>45683.944444444445</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="4">
         <v>3</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="4">
         <v>140</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D421" s="1">
+      <c r="D421" s="5">
         <v>45912.525000000001</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="4">
         <v>10</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="4">
         <v>1</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D422" s="1">
+      <c r="D422" s="5">
         <v>45755.96875</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="4">
         <v>13</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="4">
         <v>2</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C423" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D423" s="1">
+      <c r="D423" s="5">
         <v>45719.288194444445</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="4">
         <v>11</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="4">
         <v>3</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D424" s="1">
+      <c r="D424" s="5">
         <v>45746.32708333333</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="4">
         <v>4</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="4">
         <v>4</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D425" s="1">
+      <c r="D425" s="5">
         <v>45671.009027777778</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="4">
         <v>14</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="4">
         <v>5</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D426" s="1">
+      <c r="D426" s="5">
         <v>45915.022916666669</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="4">
         <v>7</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="4">
         <v>6</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D427" s="1">
+      <c r="D427" s="5">
         <v>45750.727777777778</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="4">
         <v>16</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="4">
         <v>7</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D428" s="1">
+      <c r="D428" s="5">
         <v>45821.604861111111</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="4">
         <v>12</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="4">
         <v>8</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D429" s="1">
+      <c r="D429" s="5">
         <v>45913.111111111109</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="4">
         <v>8</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="4">
         <v>9</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D430" s="1">
+      <c r="D430" s="5">
         <v>45899.677777777775</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="4">
         <v>1</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="4">
         <v>10</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D431" s="1">
+      <c r="D431" s="5">
         <v>45953.86041666667</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="4">
         <v>7</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="4">
         <v>11</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D432" s="1">
+      <c r="D432" s="5">
         <v>45683.884722222225</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="4">
         <v>2</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="4">
         <v>12</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D433" s="1">
+      <c r="D433" s="5">
         <v>45851.293749999997</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="4">
         <v>11</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="4">
         <v>13</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D434" s="1">
+      <c r="D434" s="5">
         <v>45892.859722222223</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="4">
         <v>4</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="4">
         <v>14</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D435" s="1">
+      <c r="D435" s="5">
         <v>46002.602777777778</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="4">
         <v>3</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="4">
         <v>15</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D436" s="1">
+      <c r="D436" s="5">
         <v>45768.219444444447</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="4">
         <v>6</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="4">
         <v>16</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D437" s="1">
+      <c r="D437" s="5">
         <v>45714.289583333331</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="4">
         <v>14</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="4">
         <v>17</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D438" s="1">
+      <c r="D438" s="5">
         <v>45731.999305555553</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="4">
         <v>10</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="4">
         <v>18</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D439" s="1">
+      <c r="D439" s="5">
         <v>45865.308333333334</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="4">
         <v>7</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="4">
         <v>19</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D440" s="1">
+      <c r="D440" s="5">
         <v>45925.32708333333</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="4">
         <v>4</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="4">
         <v>20</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D441" s="1">
+      <c r="D441" s="5">
         <v>45733.69027777778</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="4">
         <v>7</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="4">
         <v>21</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D442" s="1">
+      <c r="D442" s="5">
         <v>45811.265277777777</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="4">
         <v>16</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="4">
         <v>22</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D443" s="1">
+      <c r="D443" s="5">
         <v>45867.090277777781</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="4">
         <v>3</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="4">
         <v>23</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D444" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="4">
         <v>14</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="4">
         <v>24</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D445" s="1">
+      <c r="D445" s="5">
         <v>45964.197222222225</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="4">
         <v>11</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="4">
         <v>25</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D446" s="1">
+      <c r="D446" s="5">
         <v>45996.961111111108</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="4">
         <v>13</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="4">
         <v>26</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D447" s="1">
+      <c r="D447" s="5">
         <v>45664.031944444447</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="4">
         <v>16</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="4">
         <v>27</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D448" s="1">
+      <c r="D448" s="5">
         <v>45847.145833333336</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="4">
         <v>12</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="4">
         <v>28</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D449" s="1">
+      <c r="D449" s="5">
         <v>45971.93472222222</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="4">
         <v>12</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="4">
         <v>29</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D450" s="1">
+      <c r="D450" s="5">
         <v>45966.290972222225</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="4">
         <v>6</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="4">
         <v>30</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D451" s="1">
+      <c r="D451" s="5">
         <v>45718.455555555556</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="4">
         <v>8</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="4">
         <v>31</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D452" s="1">
+      <c r="D452" s="5">
         <v>45781.084027777775</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="4">
         <v>2</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="4">
         <v>32</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D453" s="1">
+      <c r="D453" s="5">
         <v>45871.081250000003</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="4">
         <v>8</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="4">
         <v>33</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C454" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D454" s="1">
+      <c r="D454" s="5">
         <v>45823.943055555559</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="4">
         <v>13</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="4">
         <v>34</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D455" s="1">
+      <c r="D455" s="5">
         <v>45836.835416666669</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="4">
         <v>7</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="4">
         <v>35</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D456" s="1">
+      <c r="D456" s="5">
         <v>45760.198611111111</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="4">
         <v>3</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="4">
         <v>36</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D457" s="1">
+      <c r="D457" s="5">
         <v>45752.19027777778</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="4">
         <v>12</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="4">
         <v>37</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C458" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D458" s="1">
+      <c r="D458" s="5">
         <v>45987.152083333334</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="4">
         <v>1</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="4">
         <v>38</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C459" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D459" s="1">
+      <c r="D459" s="5">
         <v>46006.061805555553</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="4">
         <v>2</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="4">
         <v>39</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C460" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D460" s="1">
+      <c r="D460" s="5">
         <v>45785.670138888891</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="4">
         <v>15</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="4">
         <v>40</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D461" s="1">
+      <c r="D461" s="5">
         <v>45901.660416666666</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="4">
         <v>10</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="4">
         <v>41</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C462" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D462" s="1">
+      <c r="D462" s="5">
         <v>45974.651388888888</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="4">
         <v>10</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="4">
         <v>42</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C463" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D463" s="1">
+      <c r="D463" s="5">
         <v>45992.21875</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="4">
         <v>12</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="4">
         <v>43</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C464" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D464" s="1">
+      <c r="D464" s="5">
         <v>45888.800694444442</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="4">
         <v>7</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="4">
         <v>44</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C465" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D465" s="1">
+      <c r="D465" s="5">
         <v>45863.902083333334</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="4">
         <v>6</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="4">
         <v>45</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C466" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D466" s="1">
+      <c r="D466" s="5">
         <v>45945.331944444442</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="4">
         <v>4</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="4">
         <v>46</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C467" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D467" s="1">
+      <c r="D467" s="5">
         <v>45706.161111111112</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="4">
         <v>2</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="4">
         <v>47</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C468" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D468" s="1">
+      <c r="D468" s="5">
         <v>45807.211805555555</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="4">
         <v>11</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="4">
         <v>48</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C469" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D469" s="1">
+      <c r="D469" s="5">
         <v>45966.831944444442</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="4">
         <v>10</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="4">
         <v>49</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C470" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D470" s="1">
+      <c r="D470" s="5">
         <v>45864.775694444441</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="4">
         <v>3</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="4">
         <v>50</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C471" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D471" s="1">
+      <c r="D471" s="5">
         <v>45995.084722222222</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="4">
         <v>10</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="4">
         <v>51</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C472" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D472" s="1">
+      <c r="D472" s="5">
         <v>45859.706250000003</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="4">
         <v>9</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="4">
         <v>52</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C473" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D473" s="1">
+      <c r="D473" s="5">
         <v>45896.64166666667</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="4">
         <v>6</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="4">
         <v>53</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C474" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D474" s="1">
+      <c r="D474" s="5">
         <v>45919.697222222225</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="4">
         <v>4</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="4">
         <v>54</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C475" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D475" s="1">
+      <c r="D475" s="5">
         <v>45717.702777777777</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="4">
         <v>4</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="4">
         <v>55</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C476" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="D476" s="1">
+      <c r="D476" s="5">
         <v>45760.902777777781</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="4">
         <v>3</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="4">
         <v>56</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C477" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D477" s="1">
+      <c r="D477" s="5">
         <v>45933.477777777778</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="4">
         <v>8</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="4">
         <v>57</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C478" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D478" s="1">
+      <c r="D478" s="5">
         <v>45833.306250000001</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="4">
         <v>9</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="4">
         <v>58</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C479" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D479" s="1">
+      <c r="D479" s="5">
         <v>45712.72152777778</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="4">
         <v>15</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="4">
         <v>59</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C480" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D480" s="1">
+      <c r="D480" s="5">
         <v>45918.600694444445</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="4">
         <v>7</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="4">
         <v>60</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C481" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D481" s="1">
+      <c r="D481" s="5">
         <v>45954.472222222219</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="4">
         <v>12</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="4">
         <v>61</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C482" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D482" s="1">
+      <c r="D482" s="5">
         <v>45693.506944444445</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="4">
         <v>8</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="4">
         <v>62</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C483" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D483" s="1">
+      <c r="D483" s="5">
         <v>45974.886805555558</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="4">
         <v>2</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="4">
         <v>63</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C484" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D484" s="1">
+      <c r="D484" s="5">
         <v>45910.405555555553</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="4">
         <v>15</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="4">
         <v>64</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C485" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D485" s="1">
+      <c r="D485" s="5">
         <v>45728.023611111108</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="4">
         <v>12</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="4">
         <v>65</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C486" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D486" s="1">
+      <c r="D486" s="5">
         <v>45750.10833333333</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="4">
         <v>7</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="4">
         <v>66</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C487" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D487" s="1">
+      <c r="D487" s="5">
         <v>45869.179166666669</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="4">
         <v>9</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="4">
         <v>67</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C488" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D488" s="1">
+      <c r="D488" s="5">
         <v>45839.746527777781</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="4">
         <v>9</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="4">
         <v>68</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C489" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D489" s="1">
+      <c r="D489" s="5">
         <v>45849.272916666669</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="4">
         <v>6</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="4">
         <v>69</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C490" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D490" s="1">
+      <c r="D490" s="5">
         <v>45923.752083333333</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="4">
         <v>8</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="4">
         <v>70</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C491" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D491" s="1">
+      <c r="D491" s="5">
         <v>45749.689583333333</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="4">
         <v>10</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="4">
         <v>71</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C492" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D492" s="1">
+      <c r="D492" s="5">
         <v>45918.192361111112</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="4">
         <v>2</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="4">
         <v>72</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C493" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D493" s="1">
+      <c r="D493" s="5">
         <v>45968.580555555556</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="4">
         <v>15</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="4">
         <v>73</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C494" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="D494" s="1">
+      <c r="D494" s="5">
         <v>45903.582638888889</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="4">
         <v>11</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="4">
         <v>74</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C495" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D495" s="1">
+      <c r="D495" s="5">
         <v>45677.150694444441</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="4">
         <v>5</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="4">
         <v>75</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C496" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D496" s="1">
+      <c r="D496" s="5">
         <v>45863.4</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="4">
         <v>9</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="4">
         <v>76</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C497" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D497" s="1">
+      <c r="D497" s="5">
         <v>45688.086111111108</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="4">
         <v>3</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="4">
         <v>77</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C498" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D498" s="1">
+      <c r="D498" s="5">
         <v>45993.938194444447</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="4">
         <v>15</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="4">
         <v>78</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C499" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D499" s="1">
+      <c r="D499" s="5">
         <v>45721.068749999999</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="4">
         <v>10</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="4">
         <v>79</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C500" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D500" s="1">
+      <c r="D500" s="5">
         <v>45885.974999999999</v>
       </c>
     </row>
